--- a/data/metadata/Informe-03-030074-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-03-030074-TC-TM-TP.xlsx
@@ -49,12 +49,15 @@
     <t>null</t>
   </si>
   <si>
+    <t>iaest-measure:provincia-residencia-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:municipio-estudio-nombre</t>
+  </si>
+  <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
-    <t>iaest-measure:municipio-estudio-nombre</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
@@ -62,9 +65,6 @@
   </si>
   <si>
     <t>xsd:int</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
   </si>
   <si>
     <t>URI-comarca</t>
@@ -182,15 +182,15 @@
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -205,21 +205,21 @@
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -234,7 +234,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>11</v>

--- a/data/metadata/Informe-03-030074-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-03-030074-TC-TM-TP.xlsx
@@ -11,57 +11,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
-  <si>
-    <t>municipio-residencia-nombre</t>
-  </si>
-  <si>
-    <t>personas-residentes-viviendas-familiares</t>
-  </si>
-  <si>
-    <t>municipio-estudio-codigo</t>
-  </si>
-  <si>
-    <t>provincia-residencia-nombre</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>municipio-residencia-codigo</t>
-  </si>
-  <si>
-    <t>municipio-estudio-nombre</t>
-  </si>
-  <si>
-    <t>provincia-residencia-codigo</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+  <si>
+    <t>Municipio estudio, nombre</t>
+  </si>
+  <si>
+    <t>Personas residentes viviendas familiares</t>
+  </si>
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>Municipio estudio, código</t>
+  </si>
+  <si>
+    <t>Comarca código</t>
+  </si>
+  <si>
+    <t>Provincia residencia código</t>
+  </si>
+  <si>
+    <t>Municipio residencia nombre</t>
+  </si>
+  <si>
+    <t>Municipio residencia código</t>
+  </si>
+  <si>
+    <t>Provincia residencia nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:municipio-estudio-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-residentes-viviendas-familiares</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
   <si>
     <t>iaest-measure:municipio-residencia-nombre</t>
   </si>
   <si>
-    <t>iaest-measure:personas-residentes-viviendas-familiares</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>iaest-measure:provincia-residencia-nombre</t>
   </si>
   <si>
-    <t>iaest-measure:municipio-estudio-nombre</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
     <t>dim</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
   </si>
   <si>
     <t>xsd:int</t>
@@ -170,16 +173,16 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
@@ -193,25 +196,25 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -219,28 +222,28 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
